--- a/KINR5AA1.xlsx
+++ b/KINR5AA1.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>dimanche</t>
+    <t>jeudi</t>
   </si>
   <si>
     <t>Informatique (KINR5AA1) (OM) / GC</t>
@@ -35,13 +35,13 @@
     <t>TYPE_AUTRE</t>
   </si>
   <si>
+    <t>vendredi</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>lundi</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>jeudi</t>
   </si>
   <si>
     <t>Informatique (KINR5AA1) (OM) / GB</t>
@@ -119,7 +119,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44934.0</v>
+        <v>46030.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -150,7 +150,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>44935.0</v>
+        <v>46031.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
@@ -189,7 +189,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>44938.0</v>
+        <v>46034.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>9</v>
@@ -243,7 +243,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="1">
-        <v>44942.0</v>
+        <v>46038.0</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>7</v>
@@ -282,7 +282,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n" s="1">
-        <v>44945.0</v>
+        <v>46041.0</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>9</v>
